--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,16 @@
           <t>Comments</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Authors</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dates</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -449,6 +459,16 @@
           <t>山科智能长箭射天之否定</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>美妙歌声</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>09-13 04:21</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -459,6 +479,16 @@
           <t>超短波段实盘</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chaoshou22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-31 05:58</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -469,6 +499,16 @@
           <t>了结金科，收下15CM，缩量震荡，个股性行情！</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摆渡人88</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08-30 04:01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -479,6 +519,16 @@
           <t>8.30首先感谢朋友们的关心，老人身体无大碍，但仍要住院治疗几天。在医院流风只能</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>流风回血</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08-30 03:29</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -489,6 +539,16 @@
           <t>超短波段实盘</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>chaoshou22</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08-30 09:51</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -499,6 +559,16 @@
           <t>$山科智能(有人问我股票能炒吗，我跟他说，什么兴趣爱好都可以，哪怕你天天打游戏，</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>奥力给888</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08-30 07:38</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -509,6 +579,16 @@
           <t>金科股份强势封板！皆大欢喜！普天同庆！</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摆渡人88</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08-29 03:40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -519,6 +599,16 @@
           <t>8.29上午老人因交通事故致伤被肇事方送往医院，本人接到电话也第一时间赶到，还好</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>流风回血</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>08-29 08:04</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -529,6 +619,16 @@
           <t>20230829（周二 收盘）</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>股海小歧</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>08-29 07:43</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -539,6 +639,16 @@
           <t>20230828（周一 收盘）</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>股海小歧</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08-28 10:50</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -549,6 +659,16 @@
           <t>污水处理概念：一直被低估！未来有望主升可能的行业龙头</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>我想找个男朋友</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08-26 02:12</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -559,6 +679,16 @@
           <t>以全流程服务体系领引智慧水务新方向  山科智能2023年半年度营业收入同比增长33.69%</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>全景网</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>08-22 04:42</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -569,6 +699,16 @@
           <t>山科智能中报出炉：业绩增长但现金流量净额亏损，财务状况引发关注【BT财报快闪】</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BT财经</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08-22 03:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -579,6 +719,16 @@
           <t>，：</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>股友0R087A9259</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>08-16 10:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -589,6 +739,16 @@
           <t>：：</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>股友0R087A9259</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>08-16 09:39</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -599,6 +759,16 @@
           <t>：：</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>股友0R087A9259</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>08-15 01:13</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -609,6 +779,16 @@
           <t>山科智能(300897.SZ)发布上半年业绩，净利润3682万元，同比增长18.23%</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>智通财经</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>08-14 06:30</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -619,6 +799,16 @@
           <t>中国星链计划-国安军工，漫漫涨停开启</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>托塔金天王</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>08-03 05:50</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -629,6 +819,16 @@
           <t>十优打板：国芳集团（SH601086）缠论技术分析</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>十优缠论</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07-31 08:27</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -639,6 +839,16 @@
           <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>祥云0303</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07-30 12:16</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -649,6 +859,16 @@
           <t>下星期指数看3335---3350，下星期一是月线收盘，券商指数是月线反转，上证指数是周线月线趋势反转点共振，期待银行复制券商</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GUyou868C06F186</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07-28 11:11</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -659,6 +879,16 @@
           <t>说了关注股票软件相关个股，说了财富趋势同花顺大智慧金证股份今天全都是涨停。东方财富11%，首创证券太平洋信达证券天风证券都是涨停</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GUyou10K3531K59</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>07-28 10:36</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -669,6 +899,16 @@
           <t>25号直播间还特意说了券商加仓的最好机会是本周星期四或者星期五，今天券商大面积涨停，指数上涨7.42%，下一个看好券商银行</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GU181A7006B9948</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>07-28 10:26</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -679,6 +919,16 @@
           <t>分享688667，机会自己把握</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>白云黄鹤</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>07-21 10:10</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -689,6 +939,16 @@
           <t>山科智能(300897.SZ):数字孪生平台从6月份开始意向客户明显增多</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>格隆汇</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>07-13 06:15</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -699,6 +959,16 @@
           <t>山科智能(300897.SZ):“年产200万套智能传感器项目”一期已于2021年投入使用</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>格隆汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>07-13 06:15</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -709,6 +979,16 @@
           <t>山科智能(300897.SZ):目前公司90%以上的客户为自来水公司</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>格隆汇</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>07-13 06:14</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -719,6 +999,16 @@
           <t>山科智能(300897.SZ):公司二季度经营情况一切正常</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>格隆汇</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>07-13 06:14</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -729,6 +1019,16 @@
           <t>山科智能(300897.SZ):将继续进一步发展智慧水利作为公司战略规划之一</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>格隆汇</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>07-13 06:10</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -739,6 +1039,16 @@
           <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>祥云0303</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>06-27 09:04</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -749,6 +1059,16 @@
           <t>水表比电表还是要差蛮多的。。。</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>函股论道</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>06-15 08:38</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -759,6 +1079,16 @@
           <t>还是低吸，等待</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>小散的成长路</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>06-06 07:29</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -769,6 +1099,16 @@
           <t>山科/数字中国_4股：AⅠ算力与人工智能明日之光芒璀璨</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>论股浅水</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>06-05 06:20</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -779,6 +1119,16 @@
           <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>祥云0303</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>06-02 10:05</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -789,6 +1139,16 @@
           <t>山科智能</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>股友10g83135g7</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>05-31 01:26</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -799,6 +1159,16 @@
           <t>短线有调整，未来预期还是看好。。。</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>函股论道</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>05-30 11:31</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -809,6 +1179,16 @@
           <t>太垃圾了</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>有魅力之霹雳火</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>05-30 09:55</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -819,6 +1199,16 @@
           <t>套牢在40以上筹码太多了，不磨走这些筹码，主力是不会当雷F来抬轿为他们解套的。。这就需要时间。。</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>函股论道</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>05-30 12:49</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -829,6 +1219,16 @@
           <t>【300897山科智能】红牛一定能够赚钱出场的，而且就是明天，这就是技术！操作！</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>账户已注销</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>05-29 09:57</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -839,6 +1239,16 @@
           <t>分红明天到账吗</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>李百万1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>05-29 03:02</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -849,6 +1259,16 @@
           <t>小盘股还有振荡反弹的机会，36计比谁跑的快</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>股势仁升</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>05-29 04:36</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -859,6 +1279,16 @@
           <t>11连板开始了，10万到100万第46天记录,24万，已经翻倍。</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>小懒财富日记</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>05-26 06:39</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -869,6 +1299,16 @@
           <t>山科日线上应会有调整，周线应还有机会。</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>函股论道</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>05-26 07:23</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -879,6 +1319,16 @@
           <t>山科智能：AI+国家水网+智能机器人+华为+杭州</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>股友8229A1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>05-26 10:47</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -889,6 +1339,16 @@
           <t>山科智能2022年度业绩说明会于2023年4月26日（星期三）下午15:00-1</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>李百万1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>05-25 10:12</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -899,6 +1359,16 @@
           <t>5.25早评指数见底明朗，需要耐心等待</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>腾飞老马</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>05-25 08:24</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -909,6 +1379,16 @@
           <t>中共中央、国务院印发了《国家水网建设规划纲要》，并发出通知，要求各地区各部门结合</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>宝宝铁粉</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>05-25 08:27</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -919,6 +1399,16 @@
           <t>中期看好，票是好票，短期有回调。。</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>函股论道</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>05-25 05:06</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -929,6 +1419,16 @@
           <t>5.24叠加中特估跳空低开，盘中形成新低？</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>流浪股民77</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>05-24 05:14</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -939,6 +1439,16 @@
           <t>市场“智能”成瘾症？ 不是人工智能的山科智能最高涨超17%</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>看究竟app</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>05-24 04:18</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -949,6 +1459,16 @@
           <t>明天周三，有机会低吸的5只翻倍趋势黑马，值得关注验证！1、山科智能300897最</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>财经小花姐</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>05-23 07:21</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -959,6 +1479,16 @@
           <t>山科智能2022年度业绩说明会【全景路演】</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>山科智能</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>04-20 11:28</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -969,6 +1499,16 @@
           <t>山科智能(300897.SZ)中标2277.8万元户用远传水表采购及安装项目</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>智通财经</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>03-27 06:18</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -979,6 +1519,16 @@
           <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>祥云0303</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>03-28 12:07</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -989,6 +1539,16 @@
           <t>山科可以加智能机器智慧城市和国产软件</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广888888发</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>03-01 11:57</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -999,6 +1559,16 @@
           <t>智能水表行业发展趋势预测：需求规模持续扩张，市场竞争愈发激烈</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>智研咨询</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>02-27 10:02</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1009,6 +1579,16 @@
           <t>年报期间，潜伏绩优股山科智能，去年一季度业绩一毛三，二季度4毛，去年三季度7毛3</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>番茄小号</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>01-13 02:33</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1019,6 +1599,16 @@
           <t>股价破发超8个月，山科智能大股东减持时间过半未减持</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泡财经APP</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>11-02 06:46</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1029,6 +1619,16 @@
           <t>写字楼招商|山科智能大厦，信息化智慧办公环境期待您的入驻山科智能2022-01-</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>哈哈哈哈哈哈711</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>08-27 02:29</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1039,6 +1639,16 @@
           <t>智慧水务产品获认可 山科智能中标3078万元NB-IoT户用远传水表项目</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>大吉为富de火舞你</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>08-16 06:50</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1049,6 +1659,16 @@
           <t>磁悬浮制冷压缩机概念股</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大海微蓝</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>07-21 11:40</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1059,6 +1679,16 @@
           <t>情绪冰点转折开始新的一轮。底部个股上涨的开始</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>老金天下</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07-21 08:58</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1069,6 +1699,16 @@
           <t>$山科智能(SZ300897)$山科今天的走势不错极好:第一阳包阴，扭转了跌的态</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A财神到A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>06-10 09:30</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1079,6 +1719,16 @@
           <t>利好消息！</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大司马论市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>05-17 10:50</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1089,6 +1739,16 @@
           <t>北上资金、杠杆资金逆势加仓9只绩优股</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>指数增强小霸王</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>04-29 12:24</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1099,6 +1759,16 @@
           <t>山科智能2021年度业绩说明会【全景路演】</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>山科智能</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>04-23 12:15</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1109,6 +1779,16 @@
           <t>山科可能又不送股</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>稳操胜券bqn8jr</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>04-18 08:57</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1119,6 +1799,16 @@
           <t>年报如不十送十,后果很严重.</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>高尔础</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>02-16 09:41</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1129,6 +1819,16 @@
           <t>知情达理雪梨ZN：老师预测一下山科智能后期走势可以吗，谢谢山科智能2021.7.</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>蔚蓝大海A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>10-25 04:38</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1139,6 +1839,16 @@
           <t>8日，水务股早盘集体走高，重庆水务、钱江水利、绿城水务、江南水务等涨停。消息面上</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>guy1234</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>10-08 10:28</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1149,6 +1859,16 @@
           <t>资讯：6日，水务股早盘集体走高，北控水务集团(00371)涨12.01%，报3.</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>guy1234</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10-07 07:21</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1159,6 +1879,16 @@
           <t>底部了缩量快9个月，还差一个点火题材，可惜假期鲜有人吹智慧水网，只有在电网与其他</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>kk11000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10-05 11:48</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1169,6 +1899,16 @@
           <t>300897山科智能。2020.10.28创下新高后，股价一路向下，一泻千里，几</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>蔚蓝大海A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>08-10 07:24</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1179,6 +1919,16 @@
           <t>上市公司这样做让所有股民嗨了！第一目标50元！如此重大利好竟被视而不见！只要捐款</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>你是股神123456</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>07-31 07:35</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1187,6 +1937,16 @@
       <c r="B76" t="inlineStr">
         <is>
           <t>公司董事会：希望公司能倾听建设性建议，送股是提升市值的必要途经。以4月19日为例</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>喝茶喝茶</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>04-24 05:21</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山科智能长箭射天之否定</t>
+          <t>美邦服饰(002269)龙虎榜数据(09-18)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美妙歌声</t>
+          <t>美邦服饰资讯</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09-13 04:21</t>
+          <t>09-18 04:24</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>超短波段实盘</t>
+          <t>2连板美邦服饰：近期经营情况正常 内外部经营环境未发生重大变化</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chaoshou22</t>
+          <t>美邦服饰资讯</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08-31 05:58</t>
+          <t>09-18 07:22</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>了结金科，收下15CM，缩量震荡，个股性行情！</t>
+          <t>美邦服饰:股票交易异常波动公告</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摆渡人88</t>
+          <t>美邦服饰资讯</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08-30 04:01</t>
+          <t>09-18 06:41</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8.30首先感谢朋友们的关心，老人身体无大碍，但仍要住院治疗几天。在医院流风只能</t>
+          <t>美邦服饰：近3个交易日上涨20.59% 无未披露的重大信息</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>流风回血</t>
+          <t>美邦服饰资讯</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08-30 03:29</t>
+          <t>09-18 06:59</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>超短波段实盘</t>
+          <t>人气怎么这么高？今天会不会拉高套人啊</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chaoshou22</t>
+          <t>福财双至</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>08-30 09:51</t>
+          <t>09-19 07:44</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$山科智能(有人问我股票能炒吗，我跟他说，什么兴趣爱好都可以，哪怕你天天打游戏，</t>
+          <t>国货概念股扎堆涨停！直播间销量增几十倍</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>奥力给888</t>
+          <t>龙头股份资讯</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08-30 07:38</t>
+          <t>09-18 05:26</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>金科股份强势封板！皆大欢喜！普天同庆！</t>
+          <t>U哥有好股：9月19日（周二）早盘策略，吃肉方向！</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>摆渡人88</t>
+          <t>U哥有好股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>08-29 03:40</t>
+          <t>09-19 08:16</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8.29上午老人因交通事故致伤被肇事方送往医院，本人接到电话也第一时间赶到，还好</t>
+          <t>除了上次新疆棉事件，美邦没有三板基因，今天冲高就先撤，下来再吸，这三年我都是这么</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>流风回血</t>
+          <t>点石大展de荆轲</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08-29 08:04</t>
+          <t>09-19 06:39</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20230829（周二 收盘）</t>
+          <t>张江高科今天修复，蓝英装备，莲花健康转强，双成药业，东方嘉盛，美邦服饰，谁会连扳晋级成功</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>股海小歧</t>
+          <t>屠叔说股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>08-29 07:43</t>
+          <t>09-19 07:31</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20230828（周一 收盘）</t>
+          <t>那么牛逼吗？都两连板</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>股海小歧</t>
+          <t>酱香味拿铁</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08-28 10:50</t>
+          <t>09-19 08:12</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>污水处理概念：一直被低估！未来有望主升可能的行业龙头</t>
+          <t>低吸宝胜股份，美邦服饰连二板</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>我想找个男朋友</t>
+          <t>超哥抓板板</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>08-26 02:12</t>
+          <t>09-18 05:21</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>以全流程服务体系领引智慧水务新方向  山科智能2023年半年度营业收入同比增长33.69%</t>
+          <t>有没有大佬指点一下怎么样提高盈利能力，老邓我炒股15年有余，结果连平均水平都没达</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>全景网</t>
+          <t>大牛股普邦</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08-22 04:42</t>
+          <t>09-19 08:12</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>山科智能中报出炉：业绩增长但现金流量净额亏损，财务状况引发关注【BT财报快闪】</t>
+          <t>有没有大佬指点一下怎么样提高盈利能力，老邓我炒股15年有余，结果连平均水平都没达</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BT财经</t>
+          <t>大牛股普邦</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08-22 03:00</t>
+          <t>09-19 08:11</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>，：</t>
+          <t>真探头版：证监会拟推新规 分红政策将大幅优化（证券时报）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>股友0R087A9259</t>
+          <t>港股新经济真探</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08-16 10:00</t>
+          <t>09-19 08:06</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>：：</t>
+          <t>过了今晚想穷都难了，[傲][傲][傲][傲]我以前非常喜欢抓妖股，这种小把戏，我</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>股友0R087A9259</t>
+          <t>融资市场理性消费</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>08-16 09:39</t>
+          <t>09-18 09:34</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>：：</t>
+          <t>难涨停，下来可以少入点，今天套牢盘都出来了看下午了可以小进一点。玩了三年了，还是</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>股友0R087A9259</t>
+          <t>硌音子</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08-15 01:13</t>
+          <t>09-19 06:40</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ)发布上半年业绩，净利润3682万元，同比增长18.23%</t>
+          <t>方军，选股票，首先要研究清楚正确股票的概念，然后再正确概念基础研究基本面</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>智通财经</t>
+          <t>安徽农大方军炒股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>08-14 06:30</t>
+          <t>09-19 06:39</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中国星链计划-国安军工，漫漫涨停开启</t>
+          <t>盘后资金好去处，账户闲钱自动理财＞＞2连板美邦服饰9月18日公告，公司股票于9月</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>托塔金天王</t>
+          <t>上海方军龙头股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>08-03 05:50</t>
+          <t>09-19 07:41</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>十优打板：国芳集团（SH601086）缠论技术分析</t>
+          <t>这波行情也许不同，国货+美邦开窍。早就该把线下亏损店铺房产等所谓的资产卖了，轻资</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>十优缠论</t>
+          <t>就恩冲</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>07-31 08:27</t>
+          <t>09-18 10:18</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
+          <t>这个榜意味着大家都看好，果断买入，因为目前是底部，后面有加速行情，今天做t的哭去</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>祥云0303</t>
+          <t>寒江孤影霜月</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>07-30 12:16</t>
+          <t>09-19 06:57</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>下星期指数看3335---3350，下星期一是月线收盘，券商指数是月线反转，上证指数是周线月线趋势反转点共振，期待银行复制券商</t>
+          <t>国货概念股起飞！</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GUyou868C06F186</t>
+          <t>不想发帖</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>07-28 11:11</t>
+          <t>09-19 07:08</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>说了关注股票软件相关个股，说了财富趋势同花顺大智慧金证股份今天全都是涨停。东方财富11%，首创证券太平洋信达证券天风证券都是涨停</t>
+          <t>我想知道我乐八连板是谁拉的，跟减持大股东之间有什么关联？</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GUyou10K3531K59</t>
+          <t>穿越牛熊来看你</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>07-28 10:36</t>
+          <t>09-19 06:55</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25号直播间还特意说了券商加仓的最好机会是本周星期四或者星期五，今天券商大面积涨停，指数上涨7.42%，下一个看好券商银行</t>
+          <t>（重发）0918周一，美邦服饰盘后分析与后市盘势预测：</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GU181A7006B9948</t>
+          <t>赢取利润</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>07-28 10:26</t>
+          <t>09-19 12:53</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>分享688667，机会自己把握</t>
+          <t>夜晚挂盘买，希望明天成功上车。</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白云黄鹤</t>
+          <t>海城小莉莉姐</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>07-21 10:10</t>
+          <t>09-19 12:57</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ):数字孪生平台从6月份开始意向客户明显增多</t>
+          <t>在美邦的兄弟们，希望大家多支持美邦的直播间！让美邦火起来</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>格隆汇</t>
+          <t>飞黄腾达de曹操</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>07-13 06:15</t>
+          <t>09-18 11:31</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ):“年产200万套智能传感器项目”一期已于2021年投入使用</t>
+          <t>赶紧好起来，美特斯邦威质量真的不错[赞][赞][赞]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>格隆汇</t>
+          <t>股友8788I7D072</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>07-13 06:15</t>
+          <t>09-19 06:21</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ):目前公司90%以上的客户为自来水公司</t>
+          <t>今晚咋没直播了呢</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>格隆汇</t>
+          <t>股友e95832t668</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>07-13 06:14</t>
+          <t>09-18 10:45</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ):公司二季度经营情况一切正常</t>
+          <t>美邦的主力还是可以的，只要你不贪心，耐心点还是能赚到钱。不知周老板这次泼天的富贵</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>格隆汇</t>
+          <t>神宝犬</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>07-13 06:14</t>
+          <t>09-19 05:28</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ):将继续进一步发展智慧水利作为公司战略规划之一</t>
+          <t>路过哈哈哈哈哈哈哈</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>格隆汇</t>
+          <t>大A遥遥领先</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>07-13 06:10</t>
+          <t>09-18 10:18</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
+          <t>美邦</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>祥云0303</t>
+          <t>主力林老哥</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>06-27 09:04</t>
+          <t>09-18 07:50</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>水表比电表还是要差蛮多的。。。</t>
+          <t>[哭][哭][哭][哭][哭][哭]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>函股论道</t>
+          <t>十一月的肖邦Jay</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>06-15 08:38</t>
+          <t>09-18 01:49</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>还是低吸，等待</t>
+          <t>明天能让我活着出来嘛？</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>小散的成长路</t>
+          <t>杰森罗格</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>06-06 07:29</t>
+          <t>09-19 01:04</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山科/数字中国_4股：AⅠ算力与人工智能明日之光芒璀璨</t>
+          <t>明天涨停价是多少啊？</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>论股浅水</t>
+          <t>股友1760t8d160</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>06-05 06:20</t>
+          <t>09-19 12:07</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
+          <t>今天吃了点肉，明天会不会吐啊？</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>祥云0303</t>
+          <t>股友1760t8d160</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>06-02 10:05</t>
+          <t>09-18 11:55</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>山科智能</t>
+          <t>这股散户少的可怜</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>股友10g83135g7</t>
+          <t>超过百分之九九</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>05-31 01:26</t>
+          <t>09-18 11:38</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>短线有调整，未来预期还是看好。。。</t>
+          <t>打板的看看前面2板的位置明天万一低开怎么办</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>函股论道</t>
+          <t>大道至简啊</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>05-30 11:31</t>
+          <t>09-18 01:40</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>太垃圾了</t>
+          <t>手持富信科技，美邦服饰，海峡创新后市如何？</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>有魅力之霹雳火</t>
+          <t>超哥抓板板</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>05-30 09:55</t>
+          <t>09-18 04:39</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>套牢在40以上筹码太多了，不磨走这些筹码，主力是不会当雷F来抬轿为他们解套的。。这就需要时间。。</t>
+          <t>开盘低开9个点，5分钟跌停。</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>函股论道</t>
+          <t>寒江孤影霜月</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05-30 12:49</t>
+          <t>09-18 07:13</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>【300897山科智能】红牛一定能够赚钱出场的，而且就是明天，这就是技术！操作！</t>
+          <t>各位兄弟们，晚上好，明天能站稳三个板不？</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>账户已注销</t>
+          <t>心中的梦想</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>05-29 09:57</t>
+          <t>09-18 10:01</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>分红明天到账吗</t>
+          <t>美邦服饰---美特斯邦威</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>李百万1</t>
+          <t>St新星</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05-29 03:02</t>
+          <t>09-14 01:06</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>小盘股还有振荡反弹的机会，36计比谁跑的快</t>
+          <t>明天一字板根本买不进。干瞪眼</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>股势仁升</t>
+          <t>牛气冲天飞一把</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05-29 04:36</t>
+          <t>09-18 10:37</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11连板开始了，10万到100万第46天记录,24万，已经翻倍。</t>
+          <t>明天估计开盘</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>小懒财富日记</t>
+          <t>德威蓝盾</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>05-26 06:39</t>
+          <t>09-18 11:26</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>山科日线上应会有调整，周线应还有机会。</t>
+          <t>今天入了春兴精工和美邦服饰</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>函股论道</t>
+          <t>财入门</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>05-26 07:23</t>
+          <t>09-18 08:31</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>山科智能：AI+国家水网+智能机器人+华为+杭州</t>
+          <t>今天全是游资及营业部买的，东财的散军没有上榜，后续会连板几个，等着吃肉[微笑][</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>股友8229A1</t>
+          <t>股友0322w235K9</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>05-26 10:47</t>
+          <t>09-18 08:52</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山科智能2022年度业绩说明会于2023年4月26日（星期三）下午15:00-1</t>
+          <t>放这么大量三板估计困难</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>李百万1</t>
+          <t>ABC化繁为简</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>05-25 10:12</t>
+          <t>09-18 11:16</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5.25早评指数见底明朗，需要耐心等待</t>
+          <t>国货概念股？？？那不是至少有3千多家上市公司属于国货概念呀</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>腾飞老马</t>
+          <t>福财双至</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>05-25 08:24</t>
+          <t>09-18 06:38</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>中共中央、国务院印发了《国家水网建设规划纲要》，并发出通知，要求各地区各部门结合</t>
+          <t>资金高低切</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>宝宝铁粉</t>
+          <t>作手求同存异</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>05-25 08:27</t>
+          <t>09-18 08:04</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>中期看好，票是好票，短期有回调。。</t>
+          <t>早盘加速拉看好三板</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>函股论道</t>
+          <t>炒牛专稼</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>05-25 05:06</t>
+          <t>09-18 10:54</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5.24叠加中特估跳空低开，盘中形成新低？</t>
+          <t>支援直播间！去捧场美邦，直播间有多火，股价就有多高！</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>流浪股民77</t>
+          <t>股市怪客1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>05-24 05:14</t>
+          <t>09-18 03:10</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>市场“智能”成瘾症？ 不是人工智能的山科智能最高涨超17%</t>
+          <t>已经最高价渴</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>看究竟app</t>
+          <t>股友A8628X3096</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>05-24 04:18</t>
+          <t>09-18 10:43</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>明天周三，有机会低吸的5只翻倍趋势黑马，值得关注验证！1、山科智能300897最</t>
+          <t>美邦服饰</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>财经小花姐</t>
+          <t>私募老金</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>05-23 07:21</t>
+          <t>09-18 10:43</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山科智能2022年度业绩说明会【全景路演】</t>
+          <t>今晚咋没直播了呢</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>山科智能</t>
+          <t>股友e95832t668</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>04-20 11:28</t>
+          <t>09-18 10:42</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山科智能(300897.SZ)中标2277.8万元户用远传水表采购及安装项目</t>
+          <t>都来马后炮，我也来个马后炮，美邦就是低价加业绩扭转，老庄筹码也拿够了，先看过前高</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>智通财经</t>
+          <t>似懂非懂的甜梦</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>03-27 06:18</t>
+          <t>09-18 08:48</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>山科智能300897长短期均线“粘合顺上↑”看多跟踪。</t>
+          <t>这东东，什么利润都没有丁点。纯熟就是炒玫瑰花</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>祥云0303</t>
+          <t>人生和气生财</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>03-28 12:07</t>
+          <t>09-18 10:30</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>山科可以加智能机器智慧城市和国产软件</t>
+          <t>什么逻辑？</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>广888888发</t>
+          <t>顺势而唯</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>03-01 11:57</t>
+          <t>09-18 10:30</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>智能水表行业发展趋势预测：需求规模持续扩张，市场竞争愈发激烈</t>
+          <t>老周咋不减持了？</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>智研咨询</t>
+          <t>金玉有余的凌康</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>02-27 10:02</t>
+          <t>09-18 09:09</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>年报期间，潜伏绩优股山科智能，去年一季度业绩一毛三，二季度4毛，去年三季度7毛3</t>
+          <t>说了你们不相信</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>番茄小号</t>
+          <t>融资市场理性消费</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01-13 02:33</t>
+          <t>09-18 01:18</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>股价破发超8个月，山科智能大股东减持时间过半未减持</t>
+          <t>就看几个板了！</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>泡财经APP</t>
+          <t>华夫人的情郎</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11-02 06:46</t>
+          <t>09-18 10:04</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>写字楼招商|山科智能大厦，信息化智慧办公环境期待您的入驻山科智能2022-01-</t>
+          <t>明天接着往上功，破前高。加油主力</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>哈哈哈哈哈哈711</t>
+          <t>一只吃肉的羊</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>08-27 02:29</t>
+          <t>09-18 10:12</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>智慧水务产品获认可 山科智能中标3078万元NB-IoT户用远传水表项目</t>
+          <t>榜还不错！这次回封搞对了，进的时候还以为拉萨会跟进来[呲牙][呲牙][呲牙]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大吉为富de火舞你</t>
+          <t>捕龙捉妖记</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>08-16 06:50</t>
+          <t>09-18 10:12</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>磁悬浮制冷压缩机概念股</t>
+          <t>礼拜五就说了，过了今晚想穷都难</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大海微蓝</t>
+          <t>融资市场理性消费</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>07-21 11:40</t>
+          <t>09-18 09:26</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>情绪冰点转折开始新的一轮。底部个股上涨的开始</t>
+          <t>双成股份，医药美邦服饰，消费春兴精工，汽车福日电子，华为这四个一进二成功的，喜欢</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>老金天下</t>
+          <t>向鸿niu303925</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>07-21 08:58</t>
+          <t>09-18 05:18</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$山科智能(SZ300897)$山科今天的走势不错极好:第一阳包阴，扭转了跌的态</t>
+          <t>早上挂涨停卖了，但是后面看绿了，就觉得不对，马上取消了，下午看涨停了，感觉应该是</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A财神到A</t>
+          <t>抓住那一只基</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>06-10 09:30</t>
+          <t>09-18 01:43</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>利好消息！</t>
+          <t>明天低开，大家记得跑，等下跌停了跑不掉</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大司马论市</t>
+          <t>寒江孤影霜月</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>05-17 10:50</t>
+          <t>09-17 07:54</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>北上资金、杠杆资金逆势加仓9只绩优股</t>
+          <t>今天很多散户没走，明天又是洗盘的一天，我也没走不知道对还是错，总是太贪心最后利润</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>指数增强小霸王</t>
+          <t>股友655187vO32</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>04-29 12:24</t>
+          <t>09-18 09:44</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>山科智能2021年度业绩说明会【全景路演】</t>
+          <t>花西子事件带动美邦服饰几个板？</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>山科智能</t>
+          <t>股米三丰</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>04-23 12:15</t>
+          <t>09-18 09:27</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>山科可能又不送股</t>
+          <t>这股流通大股东都是公募基金，且分别是6家基金公司，人心不得齐，意见也没办法统一，</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>稳操胜券bqn8jr</t>
+          <t>榜一小哥</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>04-18 08:57</t>
+          <t>09-18 08:49</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>年报如不十送十,后果很严重.</t>
+          <t>第四十七贴 割肉</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>高尔础</t>
+          <t>炒股养A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>02-16 09:41</t>
+          <t>09-18 09:26</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>知情达理雪梨ZN：老师预测一下山科智能后期走势可以吗，谢谢山科智能2021.7.</t>
+          <t>买</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蔚蓝大海A</t>
+          <t>金灿灿的小天才</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10-25 04:38</t>
+          <t>09-18 09:25</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8日，水务股早盘集体走高，重庆水务、钱江水利、绿城水务、江南水务等涨停。消息面上</t>
+          <t>明日冲高回落！</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>guy1234</t>
+          <t>大青山王老师</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10-08 10:28</t>
+          <t>09-18 09:24</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>资讯：6日，水务股早盘集体走高，北控水务集团(00371)涨12.01%，报3.</t>
+          <t>今天才发现这个票，想问一下各位这个票会退市吗？股价这么低。会不会退市啊。</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>guy1234</t>
+          <t>股友rujia1978</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10-07 07:21</t>
+          <t>09-18 08:15</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>底部了缩量快9个月，还差一个点火题材，可惜假期鲜有人吹智慧水网，只有在电网与其他</t>
+          <t>明天不会涨停了，冲一下可以有，因为怕收到深交所问询，怕被监视</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>kk11000</t>
+          <t>德威蓝盾</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10-05 11:48</t>
+          <t>09-18 07:35</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>300897山科智能。2020.10.28创下新高后，股价一路向下，一泻千里，几</t>
+          <t>这支票，是什么原因让美邦起飞</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蔚蓝大海A</t>
+          <t>花开大展的尘心</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>08-10 07:24</t>
+          <t>09-18 08:18</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>上市公司这样做让所有股民嗨了！第一目标50元！如此重大利好竟被视而不见！只要捐款</t>
+          <t>明天大盘如果走弱，大量资金从中大盘股、大盘股流出，依照资金惯性并不会直接从市场退</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>你是股神123456</t>
+          <t>大吉纳福得李洛阳</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>07-31 07:35</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,117 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>公司董事会：希望公司能倾听建设性建议，送股是提升市值的必要途经。以4月19日为例</t>
+          <t>该股近一年涨停10次。异动原因揭秘：1、国家统计局数据显示，8月份，社会消费品零</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>喝茶喝茶</t>
+          <t>关注牛股最新消息</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>04-24 05:21</t>
+          <t>09-18 06:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>拉萨没上板，[为什么][为什么][为什么]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>活力的高锦鹏1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>09-18 08:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>这票还在呢？</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>挖土機</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>09-18 08:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>我已经持有3年了。满仓5.07卖了尾盘接回。里面有15万网贷加仓套到现在，现在成</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>肠胃不好等等我</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>09-18 08:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>感谢怪锅。。今年已盈利了。。明天开砸。。砸完过节。。呵呵</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>朽木不可雕</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>09-18 06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>这次干到历史最高点</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>杨杨杨辉</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>09-18 07:21</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>美邦服饰(002269)龙虎榜数据(09-18)</t>
+          <t>新型工业化离不开工控自动化、工业互联网、工业信息化等赋能：1）在工控自动化层面，</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美邦服饰资讯</t>
+          <t>悬崖之下2023</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>09-18 04:24</t>
+          <t>09-24 04:19</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2连板美邦服饰：近期经营情况正常 内外部经营环境未发生重大变化</t>
+          <t>上证大盘今日如期继续调整跌破3100点展开前面分析过的往下补缺调整走势，深成指跌</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美邦服饰资讯</t>
+          <t>康66311</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09-18 07:22</t>
+          <t>09-21 03:18</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>美邦服饰:股票交易异常波动公告</t>
+          <t>上午再次买入禾川科技，机器人零部件的集大成者</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美邦服饰资讯</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09-18 06:41</t>
+          <t>08-17 06:14</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>美邦服饰：近3个交易日上涨20.59% 无未披露的重大信息</t>
+          <t>宇树首款「通用人形机器人」发布，Q4量产发货明确产业趋势</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美邦服饰资讯</t>
+          <t>股友16l3591N01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09-18 06:59</t>
+          <t>08-16 05:31</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>人气怎么这么高？今天会不会拉高套人啊</t>
+          <t>国之重器之工业母机！禾川科技/日发精机/华中数控看谁</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>福财双至</t>
+          <t>股友y91I162599谱数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>09-19 07:44</t>
+          <t>08-02 03:30</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>国货概念股扎堆涨停！直播间销量增几十倍</t>
+          <t>是否到了三季度底部</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>龙头股份资讯</t>
+          <t>徐州段公子</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09-18 05:26</t>
+          <t>08-02 09:23</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U哥有好股：9月19日（周二）早盘策略，吃肉方向！</t>
+          <t>控仓应对寻底，不要迷恋房地产</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>U哥有好股</t>
+          <t>坐海观云01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>09-19 08:16</t>
+          <t>07-27 05:03</t>
         </is>
       </c>
     </row>
@@ -596,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>除了上次新疆棉事件，美邦没有三板基因，今天冲高就先撤，下来再吸，这三年我都是这么</t>
+          <t>特斯拉人形机器人亮相门店，禾川科技迎来新机会        近日，特斯拉将其</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>点石大展de荆轲</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>09-19 06:39</t>
+          <t>07-14 08:33</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>张江高科今天修复，蓝英装备，莲花健康转强，双成药业，东方嘉盛，美邦服饰，谁会连扳晋级成功</t>
+          <t>特斯拉公布最新版本TeslaBot，禾川科技有望受益</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>屠叔说股</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>09-19 07:31</t>
+          <t>07-10 10:03</t>
         </is>
       </c>
     </row>
@@ -636,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>那么牛逼吗？都两连板</t>
+          <t>小非减持完毕后，禾川科技将会迎来突破历史新高的行情     5月份以来机器人</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>酱香味拿铁</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09-19 08:12</t>
+          <t>07-08 02:34</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>低吸宝胜股份，美邦服饰连二板</t>
+          <t>【国金晨讯精选230706】之1【机械满在朋】运动控制重点关注禾川科技/华中数控</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>超哥抓板板</t>
+          <t>MT调研小助手</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>09-18 05:21</t>
+          <t>07-06 10:04</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>有没有大佬指点一下怎么样提高盈利能力，老邓我炒股15年有余，结果连平均水平都没达</t>
+          <t>新市网资讯获悉，机构指出，人形机器人的手指空间狭小，因而人形机器人手指关节需配备</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大牛股普邦</t>
+          <t>三口百威</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>09-19 08:12</t>
+          <t>07-04 08:18</t>
         </is>
       </c>
     </row>
@@ -696,17 +696,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>有没有大佬指点一下怎么样提高盈利能力，老邓我炒股15年有余，结果连平均水平都没达</t>
+          <t>徐小明老师对底部形态判断，正确率80%，供大家参考。</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大牛股普邦</t>
+          <t>WLY9410</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>09-19 08:11</t>
+          <t>07-02 08:21</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>真探头版：证监会拟推新规 分红政策将大幅优化（证券时报）</t>
+          <t>人形机器人灵巧手的重要零部件，该产品完美契合轻量化、高精度等需求</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>港股新经济真探</t>
+          <t>寻龙实战宗师老金</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09-19 08:06</t>
+          <t>06-30 07:14</t>
         </is>
       </c>
     </row>
@@ -736,17 +736,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>过了今晚想穷都难了，[傲][傲][傲][傲]我以前非常喜欢抓妖股，这种小把戏，我</t>
+          <t>6.29收盘播报:外资大幅流出，机器人概念全天强势</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融资市场理性消费</t>
+          <t>华夏ETF君</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09-18 09:34</t>
+          <t>06-29 05:35</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>难涨停，下来可以少入点，今天套牢盘都出来了看下午了可以小进一点。玩了三年了，还是</t>
+          <t>禾川科技放量大涨，是金子终会发光</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>硌音子</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09-19 06:40</t>
+          <t>06-29 05:25</t>
         </is>
       </c>
     </row>
@@ -776,17 +776,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>方军，选股票，首先要研究清楚正确股票的概念，然后再正确概念基础研究基本面</t>
+          <t>飞熊投研【公司分享】  控制器+伺服布局，持续受益工业自动化市场发展，23Q1业绩高增下，全年弹性可期</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安徽农大方军炒股</t>
+          <t>飞熊投研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09-19 06:39</t>
+          <t>06-29 04:21</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>盘后资金好去处，账户闲钱自动理财＞＞2连板美邦服饰9月18日公告，公司股票于9月</t>
+          <t>禾川科技小股东的减持为自己从容建仓提供了条件。     禾川科技在这波机器</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>上海方军龙头股票</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09-19 07:41</t>
+          <t>06-29 08:31</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>这波行情也许不同，国货+美邦开窍。早就该把线下亏损店铺房产等所谓的资产卖了，轻资</t>
+          <t>【ETF全知道】华哥画理财之指数投资风向标</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>就恩冲</t>
+          <t>华夏ETF君</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09-18 10:18</t>
+          <t>06-29 04:42</t>
         </is>
       </c>
     </row>
@@ -836,17 +836,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>这个榜意味着大家都看好，果断买入，因为目前是底部，后面有加速行情，今天做t的哭去</t>
+          <t>资金去哪里，我们就去哪里。</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>寒江孤影霜月</t>
+          <t>笑看股海浮沉</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09-19 06:57</t>
+          <t>06-29 09:37</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>国货概念股起飞！</t>
+          <t>禾川科技工业机器人发力人形机器人已经布局，未来可期</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>不想发帖</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09-19 07:08</t>
+          <t>06-26 03:22</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>我想知道我乐八连板是谁拉的，跟减持大股东之间有什么关联？</t>
+          <t>人形机器人伺服系统，核心概念股详细梳理</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>穿越牛熊来看你</t>
+          <t>先机投研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>09-19 06:55</t>
+          <t>06-23 10:06</t>
         </is>
       </c>
     </row>
@@ -896,17 +896,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>（重发）0918周一，美邦服饰盘后分析与后市盘势预测：</t>
+          <t>禾川科技与汇川技术相比的巨大预期差。             近期机器人板块</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>赢取利润</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>09-19 12:53</t>
+          <t>06-22 07:54</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>夜晚挂盘买，希望明天成功上车。</t>
+          <t>禾川科技-极具想象力的机器人伺服系统小龙头</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>海城小莉莉姐</t>
+          <t>投资狂人666</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>09-19 12:57</t>
+          <t>06-21 12:36</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>在美邦的兄弟们，希望大家多支持美邦的直播间！让美邦火起来</t>
+          <t>国产产业链自主整合、优质终端客户自主开拓，力争成为一家在技术和产品领域具有全球竞</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>飞黄腾达de曹操</t>
+          <t>悬崖之下2023</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>09-18 11:31</t>
+          <t>06-21 02:29</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>赶紧好起来，美特斯邦威质量真的不错[赞][赞][赞]</t>
+          <t>宝色股份通灵股份禾川科技后续处理思路来了</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>股友8788I7D072</t>
+          <t>小二策略分享日记</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>09-19 06:21</t>
+          <t>06-16 02:36</t>
         </is>
       </c>
     </row>
@@ -976,17 +976,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>今晚咋没直播了呢</t>
+          <t>今日策略</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>股友e95832t668</t>
+          <t>雪豹实盘</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>09-18 10:45</t>
+          <t>06-16 09:09</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>美邦的主力还是可以的，只要你不贪心，耐心点还是能赚到钱。不知周老板这次泼天的富贵</t>
+          <t>1，通灵股份：今天站上62，后续跟进看能否冲击72高点2，禾川科技：放量整理，短</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>神宝犬</t>
+          <t>大A老杨2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09-19 05:28</t>
+          <t>06-16 03:34</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>路过哈哈哈哈哈哈哈</t>
+          <t>明日展望</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大A遥遥领先</t>
+          <t>雪豹实盘</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>09-18 10:18</t>
+          <t>06-15 08:01</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>美邦</t>
+          <t>【小二策略】大盘全天高开高走，创业板指大涨超3%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>主力林老哥</t>
+          <t>小二策略分享日记</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09-18 07:50</t>
+          <t>06-15 03:33</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[哭][哭][哭][哭][哭][哭]</t>
+          <t>禾川11年成立的，我14到16年在禾川干了差不多两年的售后服务攻城狮，主要做编程</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>十一月的肖邦Jay</t>
+          <t>永夜初寒凝碧天</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>09-18 01:49</t>
+          <t>05-25 11:13</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>明天能让我活着出来嘛？</t>
+          <t>把握核心方向的核心——人形机器人、小盘中船系、高压直流充电、日韩贸易替代</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>杰森罗格</t>
+          <t>笑看股海浮沉</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>09-19 01:04</t>
+          <t>05-19 07:43</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>明天涨停价是多少啊？</t>
+          <t>连续20cm涨停，这个题材爆拉！持续高增长股揭秘</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>股友1760t8d160</t>
+          <t>指数增强小霸王</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>09-19 12:07</t>
+          <t>12-16 12:57</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>今天吃了点肉，明天会不会吐啊？</t>
+          <t>禾川科技：深度制造打造供应链端竞争力，成本优势有望逐步提升</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>股友1760t8d160</t>
+          <t>股友7955V95G22</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09-18 11:55</t>
+          <t>12-09 10:55</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>这股散户少的可怜</t>
+          <t>我不是谁的保，也不是谁的菜，世界这么大，伺服应用如此广泛，难道不跟宁德时代做生意</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>超过百分之九九</t>
+          <t>股友92t85116e7</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>09-18 11:38</t>
+          <t>11-30 01:11</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>打板的看看前面2板的位置明天万一低开怎么办</t>
+          <t>【科创定位】688320禾川科技专利技术保护趋势</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大道至简啊</t>
+          <t>科创定位</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>09-18 01:40</t>
+          <t>11-23 05:04</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>手持富信科技，美邦服饰，海峡创新后市如何？</t>
+          <t>变频器+伺服+控制，公司专注电气传动和工业控制，未来有望持续受益工业自动化市场发展</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>超哥抓板板</t>
+          <t>飞熊投研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>09-18 04:39</t>
+          <t>11-20 07:58</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>开盘低开9个点，5分钟跌停。</t>
+          <t>禾川科技：工控自动化行业：2022Q3 OEM 市场持续疲弱</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>寒江孤影霜月</t>
+          <t>股友T61w553815</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>09-18 07:13</t>
+          <t>11-08 08:37</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>各位兄弟们，晚上好，明天能站稳三个板不？</t>
+          <t>通用机械行业有望启动！龙头公司需要重点关注！！</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>心中的梦想</t>
+          <t>书归要正传</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>09-18 10:01</t>
+          <t>10-18 08:18</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>美邦服饰---美特斯邦威</t>
+          <t>禾川科技刻骨铭心科捷智能要抄作业？</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>St新星</t>
+          <t>维尚必牛</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09-14 01:06</t>
+          <t>09-18 02:10</t>
         </is>
       </c>
     </row>
@@ -1256,17 +1256,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>明天一字板根本买不进。干瞪眼</t>
+          <t>禾川科技研究报告：全产品布局工业自动化，深度制造构建竞争优势</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>牛气冲天飞一把</t>
+          <t>未来智库</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>09-18 10:37</t>
+          <t>09-02 11:12</t>
         </is>
       </c>
     </row>
@@ -1276,17 +1276,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>明天估计开盘</t>
+          <t>小米的人形机器人，还分不了特斯拉的蛋糕，但产业链可以吃肉</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>德威蓝盾</t>
+          <t>贝克街探案官</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>09-18 11:26</t>
+          <t>08-23 06:00</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>今天入了春兴精工和美邦服饰</t>
+          <t>2022世界机器人大会亮点速递，投资机会看这里</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>财入门</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>09-18 08:31</t>
+          <t>08-22 04:12</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>今天全是游资及营业部买的，东财的散军没有上榜，后续会连板几个，等着吃肉[微笑][</t>
+          <t>机器人行业深度研究(一)：寻找人形机器人产业投资机会</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>股友0322w235K9</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09-18 08:52</t>
+          <t>08-21 08:35</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>放这么大量三板估计困难</t>
+          <t>小米人形机器人CYBERONE亮相 关注国产零部件重大机遇</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ABC化繁为简</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>09-18 11:16</t>
+          <t>08-21 08:39</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>国货概念股？？？那不是至少有3千多家上市公司属于国货概念呀</t>
+          <t>基金研究：我国机器人行业发展进程</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>福财双至</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09-18 06:38</t>
+          <t>08-21 08:32</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>资金高低切</t>
+          <t>机器人行业点评：小米入局人形机器人 看机器人赛道风起几何</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>作手求同存异</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>09-18 08:04</t>
+          <t>08-21 08:41</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>早盘加速拉看好三板</t>
+          <t>小米入局，人形机器人风口已至？</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>炒牛专稼</t>
+          <t>读数一帜2022</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>09-18 10:54</t>
+          <t>08-12 07:23</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>支援直播间！去捧场美邦，直播间有多火，股价就有多高！</t>
+          <t>特斯拉“Optimus”即将横空出世，开启人形机器人纪元。马斯克将于2022年9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>股市怪客1</t>
+          <t>富可满堂的裘千仞</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>09-18 03:10</t>
+          <t>08-09 08:04</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>已经最高价渴</t>
+          <t>最强主线机器人，伺服电机你需要懂一下么？投资就是一场学习，你永远赚不到认知以外的钱。</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>股友A8628X3096</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>09-18 10:43</t>
+          <t>08-04 11:17</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>美邦服饰</t>
+          <t>逆势抗跌，大浪陶沙！谐波减速器？RV减速器？你会选哪个？</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>私募老金</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>09-18 10:43</t>
+          <t>08-02 07:39</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>今晚咋没直播了呢</t>
+          <t>关于机器人，你有本事？说出除了这些之外的核心标的么？</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>股友e95832t668</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>09-18 10:42</t>
+          <t>08-01 10:12</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>都来马后炮，我也来个马后炮，美邦就是低价加业绩扭转，老庄筹码也拿够了，先看过前高</t>
+          <t>禾川24年估3.3E利润，现价对应31倍PE，加上最强风口，你怕什么？</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>似懂非懂的甜梦</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>09-18 08:48</t>
+          <t>07-31 10:32</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>这东东，什么利润都没有丁点。纯熟就是炒玫瑰花</t>
+          <t>8月世界机器人大会举办在即，“机器人”概念股一览(附名单)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>人生和气生财</t>
+          <t>天赐良股kw39599</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>09-18 10:30</t>
+          <t>07-30 10:21</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>什么逻辑？</t>
+          <t>飞熊投研【公司分享】工控自动化领域新锐控制器+伺服布局，未来有望持续受益工业自动化市场发展</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>顺势而唯</t>
+          <t>飞熊投研</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>09-18 10:30</t>
+          <t>07-28 09:45</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>老周咋不减持了？</t>
+          <t>川发龙蟒获取省内，钒钛磁铁矿、锂矿、磷矿等四川发展在国务院国资委国企改革三年行动</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>金玉有余的凌康</t>
+          <t>大吉善贾得子牙</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>09-18 09:09</t>
+          <t>07-28 11:57</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>说了你们不相信</t>
+          <t>近日禾川科技迎来了165家机构的调研，公司是工控自动化领域新锐，深耕OEM市场，</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>融资市场理性消费</t>
+          <t>了凡达人</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>09-18 01:18</t>
+          <t>07-15 08:03</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>就看几个板了！</t>
+          <t>TESLA BOTAI的星辰大海，人形机器人未来可期</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华夫人的情郎</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>09-18 10:04</t>
+          <t>07-14 11:05</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>明天接着往上功，破前高。加油主力</t>
+          <t>今天参与调研了浙江龙游的上市公司~禾川科技，禾川科技有对比行业龙头汇川技术，这个</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>一只吃肉的羊</t>
+          <t>方寸好先生</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>09-18 10:12</t>
+          <t>07-14 07:03</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>榜还不错！这次回封搞对了，进的时候还以为拉萨会跟进来[呲牙][呲牙][呲牙]</t>
+          <t>机器人行业深度：自动化设备的皇冠 更是下一代智能化终端</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>捕龙捉妖记</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>09-18 10:12</t>
+          <t>07-13 10:01</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>礼拜五就说了，过了今晚想穷都难</t>
+          <t>新兴产业研究系列专题：人形机器人即将推出</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>融资市场理性消费</t>
+          <t>云想衣裳花想容v</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>09-18 09:26</t>
+          <t>07-13 06:17</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>双成股份，医药美邦服饰，消费春兴精工，汽车福日电子，华为这四个一进二成功的，喜欢</t>
+          <t>特斯拉bot再掀机器人热潮，关注相关投资机会</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>向鸿niu303925</t>
+          <t>小巴买股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>09-18 05:18</t>
+          <t>07-11 09:28</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>早上挂涨停卖了，但是后面看绿了，就觉得不对，马上取消了，下午看涨停了，感觉应该是</t>
+          <t>技术分析精选-禾川科技（不建议使用）</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>抓住那一只基</t>
+          <t>三省吾身cc</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09-18 01:43</t>
+          <t>07-10 11:46</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>明天低开，大家记得跑，等下跌停了跑不掉</t>
+          <t>2022.6.29（热点概念与题材前瞻）</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>寒江孤影霜月</t>
+          <t>热点福星</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>09-17 07:54</t>
+          <t>06-29 07:26</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>今天很多散户没走，明天又是洗盘的一天，我也没走不知道对还是错，总是太贪心最后利润</t>
+          <t>第二十三贴：科创首秀，昨天尾盘买入688320禾川科技，小小多方炮，今天打响了！</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>股友655187vO32</t>
+          <t>尾入快速提现</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>09-18 09:44</t>
+          <t>06-28 07:08</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>花西子事件带动美邦服饰几个板？</t>
+          <t>京山轻机涨停大战，机构与游资封板，宁波解放南吃了3个板还锁仓</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>股米三丰</t>
+          <t>主力研究所</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>09-18 09:27</t>
+          <t>06-27 06:03</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>这股流通大股东都是公募基金，且分别是6家基金公司，人心不得齐，意见也没办法统一，</t>
+          <t>进日机构精选票（川发龙蟒+克莱机电）</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>榜一小哥</t>
+          <t>三剑客168</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>09-18 08:49</t>
+          <t>06-24 08:53</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>第四十七贴 割肉</t>
+          <t>市场连续上行后，新的推动力相对有限，仍需要谨防......</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>炒股养A</t>
+          <t>欧阳实盘</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>09-18 09:26</t>
+          <t>06-23 07:45</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>买</t>
+          <t>禾川科技交流会</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金灿灿的小天才</t>
+          <t>相守湖畔</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>09-18 09:25</t>
+          <t>06-20 01:55</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>明日冲高回落！</t>
+          <t>鄢鹏飞先生:1985年10月出生,中国国籍,无境外永久居留权,中专学历,2002</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大青山王老师</t>
+          <t>十倍牛股在手中</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>09-18 09:24</t>
+          <t>06-19 09:17</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>今天才发现这个票，想问一下各位这个票会退市吗？股价这么低。会不会退市啊。</t>
+          <t>这票套了不少基金进去，最近去调研的基金估计就是他们了。目前来看只能说是票砸基金手</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>股友rujia1978</t>
+          <t>小手挥挥牛股堆堆</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>09-18 08:15</t>
+          <t>06-16 08:16</t>
         </is>
       </c>
     </row>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>明天不会涨停了，冲一下可以有，因为怕收到深交所问询，怕被监视</t>
+          <t>头部券商站台比亚迪，新能源、光伏、汽车有望超预期！</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>德威蓝盾</t>
+          <t>穆帅看盘</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>09-18 07:35</t>
+          <t>06-14 07:00</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>这支票，是什么原因让美邦起飞</t>
+          <t>现在这票后面就是机构博弈了，该股上涨源于低价破发，最近两天明显是被动强势死扛股价</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>花开大展的尘心</t>
+          <t>小手挥挥牛股堆堆</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>09-18 08:18</t>
+          <t>06-08 10:57</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>明天大盘如果走弱，大量资金从中大盘股、大盘股流出，依照资金惯性并不会直接从市场退</t>
+          <t>沪指站上3200点！赛道股集体大涨！！</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大吉纳福得李洛阳</t>
+          <t>书归要正传</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>06-06 08:17</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>该股近一年涨停10次。异动原因揭秘：1、国家统计局数据显示，8月份，社会消费品零</t>
+          <t>每周观察：继续利好刺激，板块轮动向上</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>关注牛股最新消息</t>
+          <t>东利每周观察</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>09-18 06:26</t>
+          <t>06-06 08:20</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>拉萨没上板，[为什么][为什么][为什么]</t>
+          <t>每周观察：继续向上反弹</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>活力的高锦鹏1</t>
+          <t>东利每周观察</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>09-18 08:58</t>
+          <t>06-06 08:24</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>这票还在呢？</t>
+          <t>禾川科技：列车脱线事故 预防概念 异物入侵自动报警概念</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>挖土機</t>
+          <t>一涨再涨一升再升</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>09-18 08:56</t>
+          <t>06-05 10:35</t>
         </is>
       </c>
     </row>
@@ -1996,17 +1996,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>我已经持有3年了。满仓5.07卖了尾盘接回。里面有15万网贷加仓套到现在，现在成</t>
+          <t>$禾川科技(SH688320)$今年5月20日，上海证券交易所和中证指数有限公司</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>肠胃不好等等我</t>
+          <t>G子顼</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>09-18 08:07</t>
+          <t>06-05 10:24</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>感谢怪锅。。今年已盈利了。。明天开砸。。砸完过节。。呵呵</t>
+          <t>看好禾川科技</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>朽木不可雕</t>
+          <t>花开富贵的洁心</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>09-18 06:59</t>
+          <t>06-02 09:25</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>这次干到历史最高点</t>
+          <t>$禾川科技(SH688320)$科创次新股个股异动禾川科技触及涨停06-0110</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>杨杨杨辉</t>
+          <t>关注牛股最新消息</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>09-18 07:21</t>
+          <t>06-01 10:50</t>
         </is>
       </c>
     </row>
